--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_24_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2707567.440564354</v>
+        <v>-2710488.685548605</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -908,19 +908,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.79223673232706</v>
+        <v>13.79223673232705</v>
       </c>
       <c r="H5" t="n">
-        <v>4.412007908243988</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>32.21140045680506</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>27.94848709386733</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -935,13 +935,13 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>14.02109506150055</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.88448735196049</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.88448735196049</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.88448735196049</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="K6" t="n">
-        <v>7.336611653513444</v>
+        <v>7.336611653512421</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1017,10 +1017,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.88448735196049</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="R6" t="n">
-        <v>34.88448735196049</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,10 +1032,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>23.38964480609334</v>
+        <v>23.38964480609621</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>92.66494928910228</v>
+        <v>13.46317442462584</v>
       </c>
       <c r="H8" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>26.17438373432626</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>24.91528667358034</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>12.71120930970042</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1212,10 +1212,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>92.66494928910228</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>60.45947654110311</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>65.63472101604999</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>33.84730027516771</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>33.42924826805087</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>94.06042130642911</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>24.78311755148376</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>200.37447115602</v>
+        <v>216.5258034075974</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516568</v>
+        <v>91.93034877516574</v>
       </c>
       <c r="T14" t="n">
         <v>200.6028050067863</v>
@@ -1664,7 +1664,7 @@
         <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>159.6809155200567</v>
+        <v>254.7594172453454</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,10 +1701,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H15" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I15" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T15" t="n">
         <v>189.0833237787849</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>81.97599399093619</v>
       </c>
       <c r="G16" t="n">
-        <v>71.37296241963209</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674405</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.6576746544297</v>
+        <v>73.65767465442975</v>
       </c>
       <c r="S16" t="n">
         <v>183.8488525946973</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C17" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D17" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E17" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
         <v>375.2658433894975</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642294995</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1910,7 +1910,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y17" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.5942676301787</v>
       </c>
       <c r="H18" t="n">
-        <v>85.68348164116145</v>
+        <v>85.68348164116146</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902189021</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T18" t="n">
         <v>189.0833237787849</v>
@@ -2005,22 +2005,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D19" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E19" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F19" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G19" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H19" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453018</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S19" t="n">
-        <v>152.238650242483</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T19" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401418</v>
       </c>
       <c r="U19" t="n">
         <v>254.5831063612652</v>
@@ -2065,7 +2065,7 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X19" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y19" t="n">
         <v>186.9744509998809</v>
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C20" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D20" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E20" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F20" t="n">
         <v>375.2658433894975</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U20" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V20" t="n">
         <v>296.142056117921</v>
@@ -2147,7 +2147,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2242,10 +2242,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D22" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E22" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F22" t="n">
         <v>113.8108456707173</v>
@@ -2254,10 +2254,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H22" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S22" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T22" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U22" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V22" t="n">
         <v>220.5274409716141</v>
@@ -2302,10 +2302,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X22" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y22" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="23">
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D23" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
         <v>375.2658433894975</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295174</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V23" t="n">
         <v>296.142056117921</v>
@@ -2384,7 +2384,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="24">
@@ -2479,10 +2479,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F25" t="n">
         <v>113.8108456707173</v>
@@ -2494,7 +2494,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424839</v>
       </c>
       <c r="T25" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612642</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V25" t="n">
         <v>220.5274409716141</v>
@@ -2542,7 +2542,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="26">
@@ -2552,16 +2552,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F26" t="n">
         <v>375.2658433894975</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612644</v>
       </c>
       <c r="V28" t="n">
         <v>220.5274409716141</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295174</v>
+        <v>60.32014642295177</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
         <v>219.3243840645688</v>
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188965</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S31" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401418</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U31" t="n">
-        <v>254.5831063612659</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V31" t="n">
         <v>220.5274409716141</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295182</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
@@ -3086,7 +3086,7 @@
         <v>219.3243840645689</v>
       </c>
       <c r="V32" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179215</v>
       </c>
       <c r="W32" t="n">
         <v>317.6307663651991</v>
@@ -3199,13 +3199,13 @@
         <v>113.8108456707174</v>
       </c>
       <c r="G34" t="n">
-        <v>134.0758985510283</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
         <v>110.1245053442998</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453017</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>186.4872700401421</v>
       </c>
       <c r="U34" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612644</v>
       </c>
       <c r="V34" t="n">
         <v>220.5274409716141</v>
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D35" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179197</v>
       </c>
       <c r="W35" t="n">
         <v>317.6307663651991</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I36" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T36" t="n">
         <v>189.0833237787849</v>
@@ -3427,10 +3427,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3439,10 +3439,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139452984</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612648</v>
       </c>
       <c r="V37" t="n">
         <v>220.5274409716141</v>
@@ -3487,10 +3487,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F38" t="n">
         <v>375.2658433894975</v>
@@ -3518,7 +3518,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V38" t="n">
         <v>296.142056117921</v>
@@ -3569,7 +3569,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I39" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T39" t="n">
         <v>189.0833237787849</v>
@@ -3664,10 +3664,10 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F40" t="n">
         <v>113.8108456707173</v>
@@ -3676,10 +3676,10 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453016</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V40" t="n">
         <v>220.5274409716141</v>
@@ -3724,10 +3724,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545717</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
-        <v>296.1420561179206</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W41" t="n">
         <v>317.6307663651991</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I42" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T42" t="n">
         <v>189.0833237787849</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D43" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G43" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H43" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453009</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221603</v>
       </c>
       <c r="S43" t="n">
-        <v>152.2386502424825</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612648</v>
+        <v>254.5831063612653</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -4074,7 +4074,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I45" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T45" t="n">
         <v>189.0833237787849</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453011</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221577</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.4872700401414</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U46" t="n">
-        <v>254.5831063612657</v>
+        <v>254.5831063612644</v>
       </c>
       <c r="V46" t="n">
         <v>220.5274409716141</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="C5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="D5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="E5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="F5" t="n">
-        <v>21.17888488772356</v>
+        <v>77.48987442553018</v>
       </c>
       <c r="G5" t="n">
-        <v>7.247332632847737</v>
+        <v>63.55832217065436</v>
       </c>
       <c r="H5" t="n">
-        <v>2.79075898815684</v>
+        <v>63.55832217065436</v>
       </c>
       <c r="I5" t="n">
-        <v>2.79075898815684</v>
+        <v>63.55832217065436</v>
       </c>
       <c r="J5" t="n">
-        <v>2.79075898815684</v>
+        <v>31.02155403246744</v>
       </c>
       <c r="K5" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="L5" t="n">
-        <v>5.366676928011428</v>
+        <v>5.36667692801348</v>
       </c>
       <c r="M5" t="n">
-        <v>39.90231940645232</v>
+        <v>39.90231940645644</v>
       </c>
       <c r="N5" t="n">
-        <v>74.43796188489321</v>
+        <v>74.43796188489941</v>
       </c>
       <c r="O5" t="n">
-        <v>98.59809745906945</v>
+        <v>98.59809745907764</v>
       </c>
       <c r="P5" t="n">
-        <v>98.59809745906945</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="Q5" t="n">
-        <v>63.36124154799824</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="R5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="S5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="T5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="U5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="V5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="W5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="X5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.12438563692703</v>
+        <v>84.43537517473365</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.20147783008961</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="C6" t="n">
-        <v>10.20147783008961</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="D6" t="n">
-        <v>10.20147783008961</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="E6" t="n">
-        <v>10.20147783008961</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="F6" t="n">
-        <v>10.20147783008961</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="G6" t="n">
-        <v>10.20147783008961</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="H6" t="n">
-        <v>10.20147783008961</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="I6" t="n">
-        <v>10.20147783008961</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="J6" t="n">
-        <v>10.20147783008961</v>
+        <v>10.20147783008874</v>
       </c>
       <c r="K6" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="L6" t="n">
-        <v>37.32640146659773</v>
+        <v>37.32640146659997</v>
       </c>
       <c r="M6" t="n">
-        <v>71.86204394503862</v>
+        <v>71.86204394504293</v>
       </c>
       <c r="N6" t="n">
-        <v>106.3976864234795</v>
+        <v>106.3976864234859</v>
       </c>
       <c r="O6" t="n">
-        <v>119.3872152366612</v>
+        <v>119.3872152366684</v>
       </c>
       <c r="P6" t="n">
-        <v>139.537949407842</v>
+        <v>139.5379494078503</v>
       </c>
       <c r="Q6" t="n">
-        <v>104.3010934967708</v>
+        <v>104.301093496777</v>
       </c>
       <c r="R6" t="n">
-        <v>69.06423758569954</v>
+        <v>104.301093496777</v>
       </c>
       <c r="S6" t="n">
-        <v>69.06423758569954</v>
+        <v>104.301093496777</v>
       </c>
       <c r="T6" t="n">
-        <v>69.06423758569954</v>
+        <v>104.301093496777</v>
       </c>
       <c r="U6" t="n">
-        <v>69.06423758569954</v>
+        <v>104.301093496777</v>
       </c>
       <c r="V6" t="n">
-        <v>45.43833374116082</v>
+        <v>80.67518965223539</v>
       </c>
       <c r="W6" t="n">
-        <v>45.43833374116082</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="X6" t="n">
-        <v>45.43833374116082</v>
+        <v>45.43833374116207</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.43833374116082</v>
+        <v>45.43833374116207</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="C7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="D7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="E7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="F7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="G7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="H7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="I7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="J7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="K7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="L7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="M7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="N7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="O7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="P7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="R7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="S7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="T7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="U7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="V7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="W7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="X7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.79075898815684</v>
+        <v>2.790758988157007</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>253.166342132848</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="C8" t="n">
-        <v>253.166342132848</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="D8" t="n">
-        <v>253.166342132848</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="E8" t="n">
-        <v>253.166342132848</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="F8" t="n">
-        <v>246.2208413836445</v>
+        <v>46.17931826454857</v>
       </c>
       <c r="G8" t="n">
-        <v>152.6198825057634</v>
+        <v>32.58015217906792</v>
       </c>
       <c r="H8" t="n">
-        <v>59.01892362788233</v>
+        <v>32.58015217906792</v>
       </c>
       <c r="I8" t="n">
         <v>32.58015217906792</v>
@@ -4811,7 +4811,7 @@
         <v>75.16870670940378</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056151</v>
+        <v>166.907006505615</v>
       </c>
       <c r="N8" t="n">
         <v>258.6453063018263</v>
@@ -4832,22 +4832,22 @@
         <v>253.166342132848</v>
       </c>
       <c r="T8" t="n">
-        <v>253.166342132848</v>
+        <v>240.3267367695142</v>
       </c>
       <c r="U8" t="n">
-        <v>253.166342132848</v>
+        <v>146.7257778916331</v>
       </c>
       <c r="V8" t="n">
-        <v>253.166342132848</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="W8" t="n">
-        <v>253.166342132848</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="X8" t="n">
-        <v>253.166342132848</v>
+        <v>53.12481901375205</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.166342132848</v>
+        <v>53.12481901375205</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>356.1721822163862</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="C9" t="n">
-        <v>262.5712233385051</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="D9" t="n">
-        <v>168.970264460624</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="E9" t="n">
-        <v>168.970264460624</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="F9" t="n">
-        <v>168.970264460624</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="G9" t="n">
-        <v>107.9000861362774</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="H9" t="n">
-        <v>107.9000861362774</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="I9" t="n">
         <v>41.60238814026729</v>
@@ -4890,10 +4890,10 @@
         <v>102.6982772648968</v>
       </c>
       <c r="M9" t="n">
-        <v>134.8197310560415</v>
+        <v>194.436577061108</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522527</v>
+        <v>286.1748768573193</v>
       </c>
       <c r="O9" t="n">
         <v>317.2247932514008</v>
@@ -4911,22 +4911,22 @@
         <v>356.1721822163862</v>
       </c>
       <c r="T9" t="n">
-        <v>356.1721822163862</v>
+        <v>322.4052647739106</v>
       </c>
       <c r="U9" t="n">
-        <v>356.1721822163862</v>
+        <v>228.8043058960295</v>
       </c>
       <c r="V9" t="n">
-        <v>356.1721822163862</v>
+        <v>135.2033470181484</v>
       </c>
       <c r="W9" t="n">
-        <v>356.1721822163862</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="X9" t="n">
-        <v>356.1721822163862</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="Y9" t="n">
-        <v>356.1721822163862</v>
+        <v>41.60238814026729</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1274.53911114974</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C11" t="n">
-        <v>905.5765942093287</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D11" t="n">
-        <v>547.3108956025783</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>161.522643004334</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5075,16 +5075,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W11" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X11" t="n">
-        <v>2051.278283189674</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1661.138951213862</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,49 +5121,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.6936570343842</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C13" t="n">
-        <v>608.7574741064773</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D13" t="n">
-        <v>458.6408346941415</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E13" t="n">
-        <v>310.7277411117484</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5224,25 +5224,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>1161.740577577775</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W13" t="n">
-        <v>959.3421218646239</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="X13" t="n">
-        <v>959.3421218646239</v>
+        <v>1227.792864306016</v>
       </c>
       <c r="Y13" t="n">
-        <v>959.3421218646239</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2035.795695791967</v>
+        <v>1939.756805160359</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.833178851556</v>
+        <v>1570.794288219947</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.567480244805</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="E14" t="n">
-        <v>922.7792276465609</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="F14" t="n">
-        <v>511.7933228569533</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
-        <v>97.48584166810102</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>97.48584166810102</v>
+        <v>97.48584166810107</v>
       </c>
       <c r="I14" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
         <v>766.6831886951454</v>
       </c>
       <c r="L14" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M14" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N14" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233289</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q14" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R14" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S14" t="n">
-        <v>4156.16151059908</v>
+        <v>4156.161510599077</v>
       </c>
       <c r="T14" t="n">
-        <v>3953.53241463263</v>
+        <v>3953.532414632626</v>
       </c>
       <c r="U14" t="n">
-        <v>3700.063135423758</v>
+        <v>3700.063135423755</v>
       </c>
       <c r="V14" t="n">
-        <v>3538.769281363095</v>
+        <v>3442.730390731487</v>
       </c>
       <c r="W14" t="n">
-        <v>3186.000626092981</v>
+        <v>3089.961735461372</v>
       </c>
       <c r="X14" t="n">
-        <v>2812.534867831901</v>
+        <v>2716.495977200293</v>
       </c>
       <c r="Y14" t="n">
-        <v>2422.395535856089</v>
+        <v>2326.356645224481</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I15" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J15" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277781</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N15" t="n">
-        <v>1551.252537854181</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O15" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P15" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q15" t="n">
         <v>2555.644190323788</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.1336920894762</v>
+        <v>335.1441411914579</v>
       </c>
       <c r="C16" t="n">
-        <v>394.1975091615693</v>
+        <v>335.1441411914579</v>
       </c>
       <c r="D16" t="n">
-        <v>244.0808697492336</v>
+        <v>335.1441411914579</v>
       </c>
       <c r="E16" t="n">
-        <v>244.0808697492336</v>
+        <v>335.1441411914579</v>
       </c>
       <c r="F16" t="n">
-        <v>244.0808697492336</v>
+        <v>252.340106857179</v>
       </c>
       <c r="G16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152618</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I16" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755868</v>
+        <v>153.8801783755866</v>
       </c>
       <c r="K16" t="n">
-        <v>396.9405013869778</v>
+        <v>396.9405013869775</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042035</v>
+        <v>763.5004667042031</v>
       </c>
       <c r="M16" t="n">
         <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
-        <v>1553.248699711515</v>
+        <v>1553.248699711514</v>
       </c>
       <c r="O16" t="n">
         <v>1900.114228341785</v>
@@ -5455,31 +5455,31 @@
         <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.168624967671</v>
+        <v>2279.16862496767</v>
       </c>
       <c r="R16" t="n">
         <v>2204.76693339754</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685725</v>
+        <v>2019.061021685724</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.760544521729</v>
+        <v>1798.760544521728</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306094</v>
+        <v>1509.676394306093</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100207</v>
+        <v>1254.991906100206</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632461</v>
+        <v>965.5747360632452</v>
       </c>
       <c r="X16" t="n">
-        <v>965.5747360632461</v>
+        <v>737.5851851652278</v>
       </c>
       <c r="Y16" t="n">
-        <v>744.7821569197159</v>
+        <v>516.7926060216977</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112808</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796684</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J17" t="n">
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951459</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612705</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.90714476723</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755813</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S17" t="n">
         <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U17" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J18" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334506</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277781</v>
+        <v>973.3971899277775</v>
       </c>
       <c r="M18" t="n">
-        <v>973.3971899277781</v>
+        <v>1522.315654538066</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
         <v>2555.644190323788</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511626</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K19" t="n">
         <v>459.5287020443611</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M19" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O19" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P19" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U19" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,67 +5726,67 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
         <v>1784.429621497863</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796667</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G20" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J20" t="n">
-        <v>337.4933016076839</v>
+        <v>337.493301607683</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951441</v>
       </c>
       <c r="L20" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746737</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
         <v>4188.091007924547</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
@@ -5795,7 +5795,7 @@
         <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>89.89576342177179</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D22" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
         <v>1285.552079040893</v>
@@ -5923,19 +5923,19 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T22" t="n">
         <v>2144.901839127669</v>
@@ -5944,16 +5944,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X22" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C23" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D23" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796681</v>
+        <v>725.1782574796666</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162844</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511675</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511507</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076825</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951438</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767229</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755812</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924548</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400163</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="24">
@@ -6060,13 +6060,13 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J24" t="n">
-        <v>216.557510983586</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
         <v>519.5985603334505</v>
@@ -6075,19 +6075,19 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>1522.315654538067</v>
+        <v>1357.07436680343</v>
       </c>
       <c r="N24" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E25" t="n">
         <v>501.6849958039802</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511625</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K25" t="n">
         <v>459.5287020443612</v>
@@ -6163,7 +6163,7 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
         <v>2529.521427597205</v>
@@ -6172,22 +6172,22 @@
         <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
         <v>1022.581387254981</v>
@@ -6209,34 +6209,34 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796676</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511689</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J26" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951456</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.21371374674</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889756</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
         <v>3311.067850233288</v>
@@ -6254,7 +6254,7 @@
         <v>4188.091007924548</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283566</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
         <v>3795.851627400162</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G28" t="n">
         <v>251.2943450749444</v>
@@ -6382,13 +6382,13 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
         <v>1285.552079040893</v>
@@ -6415,16 +6415,16 @@
         <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y28" t="n">
         <v>1022.581387254981</v>
@@ -6449,7 +6449,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
@@ -6458,25 +6458,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511507</v>
+        <v>84.98040897511598</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076826</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K29" t="n">
-        <v>766.6831886951441</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N29" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
         <v>3813.656640612704</v>
@@ -6491,7 +6491,7 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
         <v>3795.851627400162</v>
@@ -6500,13 +6500,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6534,19 +6534,19 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177173</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I30" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>388.0214583249808</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L30" t="n">
-        <v>841.8200879193082</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M30" t="n">
         <v>1084.28233189698</v>
@@ -6610,7 +6610,7 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
         <v>140.0574709897931</v>
@@ -6628,10 +6628,10 @@
         <v>857.3827676902788</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
         <v>2087.878830313936</v>
@@ -6640,28 +6640,28 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U31" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y31" t="n">
         <v>1022.581387254981</v>
@@ -6683,7 +6683,7 @@
         <v>1458.093420216582</v>
       </c>
       <c r="E32" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
         <v>725.1782574796675</v>
@@ -6698,10 +6698,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J32" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076843</v>
       </c>
       <c r="K32" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L32" t="n">
         <v>1336.032957050963</v>
@@ -6713,7 +6713,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612704</v>
@@ -6734,16 +6734,16 @@
         <v>3795.851627400163</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.718237382061</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="33">
@@ -6786,10 +6786,10 @@
         <v>973.3971899277778</v>
       </c>
       <c r="M33" t="n">
-        <v>1471.383887449136</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N33" t="n">
-        <v>2049.239235375538</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O33" t="n">
         <v>2555.644190323788</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477723</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H34" t="n">
         <v>140.0574709897932</v>
@@ -6859,7 +6859,7 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L34" t="n">
         <v>857.3827676902786</v>
@@ -6871,22 +6871,22 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U34" t="n">
         <v>1887.747186237502</v>
@@ -6901,7 +6901,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796664</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511598</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951447</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
         <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W35" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K36" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L36" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N36" t="n">
-        <v>1551.25253785418</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>2168.542634771632</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q36" t="n">
         <v>2555.644190323788</v>
@@ -7069,73 +7069,73 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502103</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C37" t="n">
-        <v>735.855734147772</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609049</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315386</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749444</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
         <v>185.1742787042784</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
         <v>1022.581387254981</v>
@@ -7151,22 +7151,22 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796667</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I38" t="n">
         <v>84.98040897511622</v>
@@ -7175,22 +7175,22 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951447</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M38" t="n">
         <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7245,7 +7245,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I39" t="n">
         <v>84.98040897511622</v>
@@ -7254,22 +7254,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L39" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M39" t="n">
-        <v>973.3971899277778</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>1453.289737812102</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O39" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P39" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q39" t="n">
         <v>2555.644190323788</v>
@@ -7315,43 +7315,43 @@
         <v>617.6685920609048</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G40" t="n">
         <v>251.2943450749444</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I40" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042788</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L40" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R40" t="n">
         <v>2487.049233352543</v>
@@ -7366,10 +7366,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V40" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W40" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X40" t="n">
         <v>1211.444469073043</v>
@@ -7400,7 +7400,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
         <v>84.98040897511622</v>
@@ -7409,10 +7409,10 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7482,7 +7482,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
         <v>84.98040897511622</v>
@@ -7491,22 +7491,22 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334505</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277778</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M42" t="n">
         <v>1522.315654538067</v>
       </c>
       <c r="N42" t="n">
-        <v>1959.694692760353</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O42" t="n">
-        <v>1959.694692760353</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P42" t="n">
-        <v>2346.796248312508</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q42" t="n">
         <v>2555.644190323788</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502104</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477722</v>
       </c>
       <c r="D43" t="n">
         <v>617.6685920609051</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315388</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042783</v>
       </c>
       <c r="K43" t="n">
         <v>459.5287020443611</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
@@ -7585,13 +7585,13 @@
         <v>2087.878830313936</v>
       </c>
       <c r="P43" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q43" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
@@ -7612,7 +7612,7 @@
         <v>1211.444469073043</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7655,19 +7655,19 @@
         <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R44" t="n">
         <v>4249.020448755811</v>
@@ -7685,13 +7685,13 @@
         <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437415</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,7 +7719,7 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
         <v>84.98040897511622</v>
@@ -7728,25 +7728,25 @@
         <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>670.3561405779134</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>1219.274605188202</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N45" t="n">
-        <v>1797.129953114605</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O45" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P45" t="n">
-        <v>2322.031270281988</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q45" t="n">
-        <v>2530.879212293268</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7795,7 +7795,7 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7804,19 +7804,19 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K46" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443606</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N46" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O46" t="n">
         <v>2087.878830313935</v>
@@ -7825,25 +7825,25 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q46" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R46" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S46" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V46" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W46" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X46" t="n">
         <v>1211.444469073043</v>
@@ -9568,7 +9568,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>171.8177168444617</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -9577,7 +9577,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775223</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446522</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>162.4747015415544</v>
@@ -10525,7 +10525,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775319</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10750,7 +10750,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094464</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.5403994144759</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -22568,10 +22568,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69.70579724700553</v>
       </c>
       <c r="K2" t="n">
-        <v>53.21989217810253</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -22583,13 +22583,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.069265482343809</v>
+        <v>9.069265482343781</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>42.58990408143413</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>78.26532087034029</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>312.8156244352823</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>361.4548211045698</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>86.14852718057102</v>
+        <v>69.99719492899359</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469698</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>168.0713429500782</v>
+        <v>72.99284122478952</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>63.44505403199506</v>
       </c>
       <c r="G16" t="n">
-        <v>94.31313848361005</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>86.13649374674408</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.868727395049063e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1337270.644026307</v>
+        <v>1337270.644026306</v>
       </c>
     </row>
     <row r="7">
@@ -26314,19 +26314,19 @@
         <v>19327.21330481903</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.04424660707</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>17049.85494854604</v>
+        <v>17049.85494854603</v>
       </c>
       <c r="F2" t="n">
-        <v>19168.57954878276</v>
+        <v>19168.57954878275</v>
       </c>
       <c r="G2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660707</v>
       </c>
       <c r="H2" t="n">
         <v>20526.04424660711</v>
@@ -26335,25 +26335,25 @@
         <v>20526.04424660708</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.04424660711</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660708</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="N2" t="n">
         <v>20526.04424660711</v>
       </c>
-      <c r="M2" t="n">
-        <v>20526.04424660711</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="P2" t="n">
         <v>20526.04424660708</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660708</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>314444.4864346</v>
       </c>
       <c r="C3" t="n">
-        <v>56271.05156263448</v>
+        <v>56271.05156263789</v>
       </c>
       <c r="D3" t="n">
-        <v>88049.46972945795</v>
+        <v>88049.46972945471</v>
       </c>
       <c r="E3" t="n">
-        <v>728470.1008399349</v>
+        <v>728470.1008399347</v>
       </c>
       <c r="F3" t="n">
-        <v>215052.1096963083</v>
+        <v>215052.1096963076</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.1618817711</v>
+        <v>25288.16188177114</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>8.771803550189361e-11</v>
       </c>
       <c r="K3" t="n">
-        <v>8978.150740799285</v>
+        <v>8978.150740799891</v>
       </c>
       <c r="L3" t="n">
-        <v>39911.87677390427</v>
+        <v>39911.87677390377</v>
       </c>
       <c r="M3" t="n">
         <v>184096.0922694315</v>
       </c>
       <c r="N3" t="n">
-        <v>56542.2935957864</v>
+        <v>56542.29359578629</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330698.4677251938</v>
+        <v>330698.4677251942</v>
       </c>
       <c r="C4" t="n">
-        <v>340674.6247663276</v>
+        <v>340674.6247663266</v>
       </c>
       <c r="D4" t="n">
         <v>312487.2615518147</v>
@@ -26430,34 +26430,34 @@
         <v>15379.37371890076</v>
       </c>
       <c r="G4" t="n">
-        <v>46449.25880112074</v>
+        <v>46449.25880112078</v>
       </c>
       <c r="H4" t="n">
-        <v>46449.25880112078</v>
+        <v>46449.25880112079</v>
       </c>
       <c r="I4" t="n">
+        <v>46449.25880112076</v>
+      </c>
+      <c r="J4" t="n">
         <v>46449.25880112077</v>
       </c>
-      <c r="J4" t="n">
-        <v>46449.25880112078</v>
-      </c>
       <c r="K4" t="n">
-        <v>46449.25880112074</v>
+        <v>46449.25880112079</v>
       </c>
       <c r="L4" t="n">
-        <v>46449.25880112076</v>
+        <v>46449.25880112073</v>
       </c>
       <c r="M4" t="n">
-        <v>46449.25880112077</v>
+        <v>46449.25880112087</v>
       </c>
       <c r="N4" t="n">
-        <v>46449.25880112077</v>
+        <v>46449.25880112083</v>
       </c>
       <c r="O4" t="n">
-        <v>46449.25880112076</v>
+        <v>46449.25880112086</v>
       </c>
       <c r="P4" t="n">
-        <v>46449.25880112079</v>
+        <v>46449.25880112081</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>40741.33736580378</v>
       </c>
       <c r="C5" t="n">
-        <v>43939.64495097122</v>
+        <v>43939.64495097141</v>
       </c>
       <c r="D5" t="n">
         <v>49237.11966583622</v>
@@ -26479,16 +26479,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060703</v>
+        <v>92448.99600060697</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215531</v>
+        <v>95106.43410215525</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.4341021553</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="J5" t="n">
         <v>95106.4341021553</v>
@@ -26506,7 +26506,7 @@
         <v>95106.43410215527</v>
       </c>
       <c r="O5" t="n">
-        <v>95106.43410215527</v>
+        <v>95106.43410215528</v>
       </c>
       <c r="P5" t="n">
         <v>95106.43410215528</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-666557.0782207786</v>
+        <v>-666676.9613149577</v>
       </c>
       <c r="C6" t="n">
-        <v>-420359.2770333263</v>
+        <v>-420359.2770333288</v>
       </c>
       <c r="D6" t="n">
-        <v>-429247.8067005018</v>
+        <v>-429247.8067004986</v>
       </c>
       <c r="E6" t="n">
-        <v>-800986.4852399844</v>
+        <v>-801334.1041697902</v>
       </c>
       <c r="F6" t="n">
-        <v>-303711.8998670334</v>
+        <v>-303847.646336815</v>
       </c>
       <c r="G6" t="n">
         <v>-146317.8105384401</v>
@@ -26540,25 +26540,25 @@
         <v>-121029.648656669</v>
       </c>
       <c r="I6" t="n">
-        <v>-121029.648656669</v>
+        <v>-121029.6486566689</v>
       </c>
       <c r="J6" t="n">
-        <v>-121029.648656669</v>
+        <v>-121029.6486566691</v>
       </c>
       <c r="K6" t="n">
-        <v>-130007.7993974682</v>
+        <v>-130007.7993974689</v>
       </c>
       <c r="L6" t="n">
-        <v>-160941.5254305732</v>
+        <v>-160941.5254305727</v>
       </c>
       <c r="M6" t="n">
-        <v>-305125.7409261004</v>
+        <v>-305125.7409261006</v>
       </c>
       <c r="N6" t="n">
         <v>-177571.9422524553</v>
       </c>
       <c r="O6" t="n">
-        <v>-121029.6486566689</v>
+        <v>-121029.6486566691</v>
       </c>
       <c r="P6" t="n">
         <v>-121029.648656669</v>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="J2" t="n">
         <v>31.61020235221391</v>
-      </c>
-      <c r="J2" t="n">
-        <v>31.61020235221394</v>
       </c>
       <c r="K2" t="n">
         <v>31.61020235221394</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N2" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>375.7370697234871</v>
+        <v>375.7370697234902</v>
       </c>
       <c r="D3" t="n">
         <v>457.5913187641656</v>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196049</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="D4" t="n">
         <v>92.66494928910228</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221381</v>
+        <v>31.61020235221389</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26960,16 +26960,16 @@
         <v>326.3182277891643</v>
       </c>
       <c r="C3" t="n">
-        <v>49.41884193432287</v>
+        <v>49.41884193432588</v>
       </c>
       <c r="D3" t="n">
-        <v>81.85424904067844</v>
+        <v>81.85424904067543</v>
       </c>
       <c r="E3" t="n">
-        <v>632.1853818291327</v>
+        <v>632.1853818291324</v>
       </c>
       <c r="F3" t="n">
-        <v>188.3831700268249</v>
+        <v>188.3831700268242</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.88448735196049</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="D4" t="n">
-        <v>57.7804619371418</v>
+        <v>57.78046193713971</v>
       </c>
       <c r="E4" t="n">
         <v>738.7365061131904</v>
       </c>
       <c r="F4" t="n">
-        <v>230.8536567866605</v>
+        <v>230.8536567866598</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196017</v>
+        <v>34.88448735196253</v>
       </c>
       <c r="L4" t="n">
-        <v>57.78046193714203</v>
+        <v>57.78046193713984</v>
       </c>
       <c r="M4" t="n">
-        <v>738.7365061131904</v>
+        <v>738.7365061131903</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866605</v>
+        <v>230.8536567866601</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>34.88448735196049</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="L4" t="n">
-        <v>57.7804619371418</v>
+        <v>57.78046193713971</v>
       </c>
       <c r="M4" t="n">
         <v>738.7365061131904</v>
       </c>
       <c r="N4" t="n">
-        <v>230.8536567866605</v>
+        <v>230.8536567866598</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>233.1934422490046</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27400,10 +27400,10 @@
         <v>159.9014836333536</v>
       </c>
       <c r="J2" t="n">
-        <v>69.70579724700553</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.21989217810253</v>
       </c>
       <c r="L2" t="n">
         <v>28.74947534450564</v>
@@ -27418,10 +27418,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>42.58990408143413</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>80.64258426171739</v>
+        <v>2.37726339137707</v>
       </c>
       <c r="R2" t="n">
         <v>133.1811664518765</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27564,10 +27564,10 @@
         <v>60.64691470913344</v>
       </c>
       <c r="L4" t="n">
-        <v>47.39929435887775</v>
+        <v>47.39929435887774</v>
       </c>
       <c r="M4" t="n">
-        <v>46.68471506615329</v>
+        <v>46.68471506615327</v>
       </c>
       <c r="N4" t="n">
         <v>37.63776203285606</v>
@@ -27631,16 +27631,16 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>319.5933780655909</v>
+        <v>324.0053859738347</v>
       </c>
       <c r="I5" t="n">
-        <v>152.2423081412009</v>
+        <v>152.2423081412005</v>
       </c>
       <c r="J5" t="n">
-        <v>52.84403871183676</v>
+        <v>20.63263825503068</v>
       </c>
       <c r="K5" t="n">
-        <v>27.94848709386886</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27655,19 +27655,19 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14.02109506150228</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>24.30411111303283</v>
+        <v>59.18859846499203</v>
       </c>
       <c r="R5" t="n">
-        <v>85.8170556641093</v>
+        <v>120.701543016069</v>
       </c>
       <c r="S5" t="n">
-        <v>174.5995329980083</v>
+        <v>174.599532998008</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4836323873894</v>
+        <v>216.4836323873893</v>
       </c>
       <c r="U5" t="n">
         <v>251.2248128452119</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131.6486962979068</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27710,13 +27710,13 @@
         <v>136.5353279943714</v>
       </c>
       <c r="H6" t="n">
-        <v>104.4300383163916</v>
+        <v>104.4300383163915</v>
       </c>
       <c r="I6" t="n">
-        <v>71.69656870443987</v>
+        <v>71.69656870443964</v>
       </c>
       <c r="J6" t="n">
-        <v>50.48147365804746</v>
+        <v>15.59698630608427</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27737,13 +27737,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.932648269604691</v>
+        <v>1.932648269601778</v>
       </c>
       <c r="R6" t="n">
-        <v>60.61639435723283</v>
+        <v>95.50088170919292</v>
       </c>
       <c r="S6" t="n">
-        <v>156.6714117615834</v>
+        <v>156.6714117615833</v>
       </c>
       <c r="T6" t="n">
         <v>196.9071591941057</v>
@@ -27752,10 +27752,10 @@
         <v>225.8882117409196</v>
       </c>
       <c r="V6" t="n">
-        <v>209.4109423433319</v>
+        <v>209.4109423433291</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>216.810495808957</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27792,37 +27792,37 @@
         <v>156.2030601436761</v>
       </c>
       <c r="I7" t="n">
-        <v>135.0744384248764</v>
+        <v>135.0744384248762</v>
       </c>
       <c r="J7" t="n">
-        <v>79.09202486169842</v>
+        <v>79.09202486169804</v>
       </c>
       <c r="K7" t="n">
-        <v>50.29326225141794</v>
+        <v>50.2932622514173</v>
       </c>
       <c r="L7" t="n">
-        <v>34.15018385078076</v>
+        <v>34.15018385077995</v>
       </c>
       <c r="M7" t="n">
-        <v>32.71538569773477</v>
+        <v>32.71538569773392</v>
       </c>
       <c r="N7" t="n">
-        <v>24.00059209383217</v>
+        <v>24.00059209383133</v>
       </c>
       <c r="O7" t="n">
-        <v>42.68670304101033</v>
+        <v>42.68670304100957</v>
       </c>
       <c r="P7" t="n">
-        <v>55.78036510486449</v>
+        <v>55.78036510486383</v>
       </c>
       <c r="Q7" t="n">
-        <v>94.76870410119929</v>
+        <v>94.76870410119884</v>
       </c>
       <c r="R7" t="n">
-        <v>146.8278906090979</v>
+        <v>146.8278906090977</v>
       </c>
       <c r="S7" t="n">
-        <v>212.2085986491046</v>
+        <v>212.2085986491045</v>
       </c>
       <c r="T7" t="n">
         <v>225.0505661041825</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>320.7982251355236</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I8" t="n">
-        <v>113.3817497892234</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>167.1010256612668</v>
       </c>
       <c r="T8" t="n">
-        <v>215.0431621354273</v>
+        <v>202.3319528257269</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1984878605957</v>
+        <v>158.5335385714935</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810326</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27932,10 +27932,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>80.04354969921346</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>54.78011627553647</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>75.89978759684119</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H9" t="n">
         <v>102.729632124056</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>65.63472101604999</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,16 +27983,16 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T9" t="n">
-        <v>196.197498299121</v>
+        <v>162.7682500310701</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8766285924705</v>
+        <v>133.2116793033682</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>140.135637860323</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718173</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605491</v>
+        <v>12.38037836605503</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605494</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>31.61020235221394</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605375</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605494</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221338</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.6102023522139</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I35" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.6102023522152</v>
       </c>
       <c r="W35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I38" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.6102023522139</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221457</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I44" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
   </sheetData>
@@ -31045,7 +31045,7 @@
         <v>13.43480020239508</v>
       </c>
       <c r="I2" t="n">
-        <v>50.57440593705229</v>
+        <v>50.5744059370523</v>
       </c>
       <c r="J2" t="n">
         <v>111.3401072796808</v>
@@ -31072,7 +31072,7 @@
         <v>141.6631056127321</v>
       </c>
       <c r="R2" t="n">
-        <v>82.40437136225565</v>
+        <v>82.40437136225566</v>
       </c>
       <c r="S2" t="n">
         <v>29.89337332963048</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7018920371314099</v>
+        <v>0.70189203713141</v>
       </c>
       <c r="H3" t="n">
         <v>6.778799411242828</v>
@@ -31151,7 +31151,7 @@
         <v>89.59590284505508</v>
       </c>
       <c r="R3" t="n">
-        <v>43.57887577908878</v>
+        <v>43.57887577908879</v>
       </c>
       <c r="S3" t="n">
         <v>13.03733674233122</v>
@@ -31200,7 +31200,7 @@
         <v>0.5884427058493126</v>
       </c>
       <c r="H4" t="n">
-        <v>5.231790602914801</v>
+        <v>5.231790602914802</v>
       </c>
       <c r="I4" t="n">
         <v>17.69607700863206</v>
@@ -31212,10 +31212,10 @@
         <v>68.36634346140194</v>
       </c>
       <c r="L4" t="n">
-        <v>87.48538192236053</v>
+        <v>87.48538192236055</v>
       </c>
       <c r="M4" t="n">
-        <v>92.24106888145177</v>
+        <v>92.24106888145178</v>
       </c>
       <c r="N4" t="n">
         <v>90.04778243237713</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.510500782807987</v>
+        <v>1.510500782807999</v>
       </c>
       <c r="H5" t="n">
-        <v>15.4694161419323</v>
+        <v>15.46941614193243</v>
       </c>
       <c r="I5" t="n">
-        <v>58.23358142920499</v>
+        <v>58.23358142920546</v>
       </c>
       <c r="J5" t="n">
-        <v>128.2018658148495</v>
+        <v>128.2018658148505</v>
       </c>
       <c r="K5" t="n">
-        <v>192.1413639511117</v>
+        <v>192.1413639511132</v>
       </c>
       <c r="L5" t="n">
-        <v>238.3683522829717</v>
+        <v>238.3683522829736</v>
       </c>
       <c r="M5" t="n">
-        <v>265.2307205792332</v>
+        <v>265.2307205792353</v>
       </c>
       <c r="N5" t="n">
-        <v>264.2975509485514</v>
+        <v>264.2975509485535</v>
       </c>
       <c r="O5" t="n">
-        <v>254.5023887693395</v>
+        <v>254.5023887693415</v>
       </c>
       <c r="P5" t="n">
-        <v>217.2119006937673</v>
+        <v>217.211900693769</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.1170914094562</v>
+        <v>163.1170914094575</v>
       </c>
       <c r="R5" t="n">
-        <v>94.88399479806232</v>
+        <v>94.88399479806309</v>
       </c>
       <c r="S5" t="n">
-        <v>34.42053658823705</v>
+        <v>34.42053658823733</v>
       </c>
       <c r="T5" t="n">
-        <v>6.612217176741968</v>
+        <v>6.612217176742021</v>
       </c>
       <c r="U5" t="n">
-        <v>0.120840062624639</v>
+        <v>0.1208400626246399</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8081891688391988</v>
+        <v>0.8081891688392052</v>
       </c>
       <c r="H6" t="n">
-        <v>7.805405920104895</v>
+        <v>7.805405920104957</v>
       </c>
       <c r="I6" t="n">
-        <v>27.82581129556014</v>
+        <v>27.82581129556036</v>
       </c>
       <c r="J6" t="n">
-        <v>76.35615300861923</v>
+        <v>76.35615300861984</v>
       </c>
       <c r="K6" t="n">
-        <v>130.5048273208455</v>
+        <v>130.5048273208466</v>
       </c>
       <c r="L6" t="n">
-        <v>173.4388671318347</v>
+        <v>173.4388671318368</v>
       </c>
       <c r="M6" t="n">
-        <v>177.0185212739788</v>
+        <v>177.0185212739809</v>
       </c>
       <c r="N6" t="n">
-        <v>166.2261994352938</v>
+        <v>166.2261994352959</v>
       </c>
       <c r="O6" t="n">
-        <v>155.7169806193755</v>
+        <v>155.7169806193763</v>
       </c>
       <c r="P6" t="n">
-        <v>154.3286843549168</v>
+        <v>154.3286843549181</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.1646384644563</v>
+        <v>103.1646384644572</v>
       </c>
       <c r="R6" t="n">
-        <v>50.17862225477062</v>
+        <v>50.17862225477103</v>
       </c>
       <c r="S6" t="n">
-        <v>15.01175934225441</v>
+        <v>15.01175934225453</v>
       </c>
       <c r="T6" t="n">
-        <v>3.257569500715892</v>
+        <v>3.257569500715918</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05317034005521046</v>
+        <v>0.05317034005521089</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6775586503210423</v>
+        <v>0.6775586503210478</v>
       </c>
       <c r="H7" t="n">
-        <v>6.024112363763453</v>
+        <v>6.024112363763502</v>
       </c>
       <c r="I7" t="n">
-        <v>20.3760365023819</v>
+        <v>20.37603650238206</v>
       </c>
       <c r="J7" t="n">
-        <v>47.90339657769769</v>
+        <v>47.90339657769808</v>
       </c>
       <c r="K7" t="n">
-        <v>78.71999591911744</v>
+        <v>78.71999591911808</v>
       </c>
       <c r="L7" t="n">
-        <v>100.7344924304575</v>
+        <v>100.7344924304583</v>
       </c>
       <c r="M7" t="n">
-        <v>106.2103982498703</v>
+        <v>106.2103982498711</v>
       </c>
       <c r="N7" t="n">
-        <v>103.684952371401</v>
+        <v>103.6849523714019</v>
       </c>
       <c r="O7" t="n">
-        <v>95.76983541083246</v>
+        <v>95.76983541083322</v>
       </c>
       <c r="P7" t="n">
-        <v>81.94763894428313</v>
+        <v>81.94763894428378</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.73629752824655</v>
+        <v>56.73629752824701</v>
       </c>
       <c r="R7" t="n">
-        <v>30.46550076807159</v>
+        <v>30.46550076807183</v>
       </c>
       <c r="S7" t="n">
-        <v>11.80799938786761</v>
+        <v>11.80799938786771</v>
       </c>
       <c r="T7" t="n">
-        <v>2.895023324098998</v>
+        <v>2.895023324099022</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03695774456296599</v>
+        <v>0.03695774456296629</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31610,13 +31610,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M9" t="n">
-        <v>174.5799468423665</v>
+        <v>234.7989832111206</v>
       </c>
       <c r="N9" t="n">
         <v>224.0066613724356</v>
       </c>
       <c r="O9" t="n">
-        <v>234.1788327264122</v>
+        <v>173.9597963576581</v>
       </c>
       <c r="P9" t="n">
         <v>187.9491588335306</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H14" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I14" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J14" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K14" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L14" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M14" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N14" t="n">
-        <v>916.8452708117594</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O14" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P14" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q14" t="n">
-        <v>554.8819566972013</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R14" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S14" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T14" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H15" t="n">
-        <v>26.55196259533502</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I15" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J15" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L15" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N15" t="n">
-        <v>715.0339827160632</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O15" t="n">
-        <v>555.164077683002</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T15" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H16" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I16" t="n">
-        <v>69.31398118051423</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J16" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K16" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L16" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M16" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N16" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O16" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P16" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q16" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R16" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S16" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T16" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U16" t="n">
         <v>0.1257206430118155</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171343</v>
       </c>
       <c r="H17" t="n">
-        <v>52.62293376879731</v>
+        <v>52.62293376879728</v>
       </c>
       <c r="I17" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383704</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171635</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869749</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654295</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117594</v>
+        <v>916.845270811759</v>
       </c>
       <c r="O17" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565676</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829624</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972013</v>
+        <v>554.881956697201</v>
       </c>
       <c r="R17" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581559</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533502</v>
+        <v>26.551962595335</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781098</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115857</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247269</v>
       </c>
       <c r="L18" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155583</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879668</v>
       </c>
       <c r="N18" t="n">
-        <v>616.0816594412368</v>
+        <v>715.0339827160627</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578285</v>
+        <v>602.6701715750705</v>
       </c>
       <c r="P18" t="n">
-        <v>524.9860796892352</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691328</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T18" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.304878455216615</v>
+        <v>2.304878455216614</v>
       </c>
       <c r="H19" t="n">
-        <v>20.49246481092592</v>
+        <v>20.49246481092591</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051423</v>
+        <v>69.3139811805142</v>
       </c>
       <c r="J19" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K19" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692047</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754552</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696481</v>
       </c>
       <c r="O19" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246175</v>
       </c>
       <c r="P19" t="n">
-        <v>278.7645724381985</v>
+        <v>278.7645724381984</v>
       </c>
       <c r="Q19" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R19" t="n">
-        <v>103.6357167227398</v>
+        <v>103.6357167227397</v>
       </c>
       <c r="S19" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925531</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>616.081659441237</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>530.1489483592454</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32795,10 +32795,10 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>529.6867378368186</v>
       </c>
       <c r="N24" t="n">
-        <v>573.1387203886723</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
@@ -32810,7 +32810,7 @@
         <v>350.9392912691327</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
         <v>51.06610426486998</v>
@@ -33175,46 +33175,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H29" t="n">
-        <v>52.62293376879731</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I29" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383707</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171638</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869754</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654299</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117594</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O29" t="n">
-        <v>865.750990556568</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829628</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972013</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R29" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S29" t="n">
-        <v>117.0897208110797</v>
+        <v>117.0897208110796</v>
       </c>
       <c r="T29" t="n">
-        <v>22.49304455734508</v>
+        <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537076</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33254,31 +33254,31 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H30" t="n">
-        <v>26.55196259533502</v>
+        <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781103</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K30" t="n">
-        <v>443.9435090247272</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L30" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M30" t="n">
-        <v>387.0453914752219</v>
+        <v>254.1392278303033</v>
       </c>
       <c r="N30" t="n">
-        <v>715.0339827160632</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578285</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892352</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33336,7 +33336,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I31" t="n">
-        <v>69.31398118051423</v>
+        <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
         <v>162.9549067838147</v>
@@ -33345,13 +33345,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L31" t="n">
-        <v>342.6725659692049</v>
+        <v>342.6725659692048</v>
       </c>
       <c r="M31" t="n">
-        <v>361.3001745754554</v>
+        <v>361.3001745754553</v>
       </c>
       <c r="N31" t="n">
-        <v>352.7092639696483</v>
+        <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
         <v>325.7840929246177</v>
@@ -33366,10 +33366,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.167745442275</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925537</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33506,13 +33506,13 @@
         <v>596.9368339155585</v>
       </c>
       <c r="M33" t="n">
-        <v>645.1509001052082</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N33" t="n">
         <v>715.033982716063</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750696</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33646,40 +33646,40 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H35" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I35" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J35" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K35" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L35" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M35" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N35" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O35" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P35" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q35" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R35" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S35" t="n">
         <v>117.0897208110796</v>
@@ -33688,7 +33688,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H36" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I36" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J36" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K36" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L36" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>555.1640776830025</v>
+        <v>211.6584993001651</v>
       </c>
       <c r="P36" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q36" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T36" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,10 +33813,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J37" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K37" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L37" t="n">
         <v>342.6725659692048</v>
@@ -33828,22 +33828,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O37" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P37" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q37" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R37" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S37" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T37" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U37" t="n">
         <v>0.1257206430118155</v>
@@ -33883,40 +33883,40 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H38" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I38" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J38" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K38" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L38" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M38" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N38" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O38" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P38" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q38" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R38" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S38" t="n">
         <v>117.0897208110796</v>
@@ -33925,7 +33925,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H39" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I39" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L39" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>616.081659441237</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578284</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P39" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T39" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,10 +34050,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J40" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K40" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L40" t="n">
         <v>342.6725659692048</v>
@@ -34065,22 +34065,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O40" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P40" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q40" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R40" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S40" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T40" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U40" t="n">
         <v>0.1257206430118155</v>
@@ -34120,40 +34120,40 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H41" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I41" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J41" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L41" t="n">
         <v>810.867191086975</v>
       </c>
       <c r="M41" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N41" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O41" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P41" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R41" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S41" t="n">
         <v>117.0897208110796</v>
@@ -34162,7 +34162,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H42" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I42" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K42" t="n">
-        <v>443.9435090247271</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>573.1387203886723</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P42" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T42" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,10 +34287,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J43" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K43" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L43" t="n">
         <v>342.6725659692048</v>
@@ -34302,22 +34302,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O43" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P43" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q43" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R43" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S43" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T43" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U43" t="n">
         <v>0.1257206430118155</v>
@@ -34357,40 +34357,40 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H44" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I44" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J44" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K44" t="n">
-        <v>653.6149895171635</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N44" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q44" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R44" t="n">
-        <v>322.7706933581561</v>
+        <v>322.7706933581568</v>
       </c>
       <c r="S44" t="n">
         <v>117.0897208110796</v>
@@ -34399,7 +34399,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H45" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I45" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
-        <v>596.9368339155585</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N45" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>281.7879228436643</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P45" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T45" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,10 +34524,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J46" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K46" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L46" t="n">
         <v>342.6725659692048</v>
@@ -34539,22 +34539,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O46" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P46" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q46" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R46" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S46" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T46" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U46" t="n">
         <v>0.1257206430118155</v>
@@ -34939,16 +34939,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.601937312984433</v>
+        <v>2.601937312986337</v>
       </c>
       <c r="M5" t="n">
-        <v>34.88448735196049</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="N5" t="n">
-        <v>34.88448735196049</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="O5" t="n">
-        <v>24.40417734765276</v>
+        <v>24.40417734765478</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,19 +35018,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>34.88448735196049</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="M6" t="n">
-        <v>34.88448735196049</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="N6" t="n">
-        <v>34.88448735196049</v>
+        <v>34.88448735196258</v>
       </c>
       <c r="O6" t="n">
-        <v>13.12073617493105</v>
+        <v>13.12073617493184</v>
       </c>
       <c r="P6" t="n">
-        <v>20.3542769405866</v>
+        <v>20.35427694058782</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>75.15371678069204</v>
       </c>
       <c r="M9" t="n">
-        <v>32.44591292034816</v>
+        <v>92.66494928910228</v>
       </c>
       <c r="N9" t="n">
         <v>92.66494928910228</v>
       </c>
       <c r="O9" t="n">
-        <v>91.58258828196773</v>
+        <v>31.36355191321363</v>
       </c>
       <c r="P9" t="n">
         <v>53.97475141920035</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K14" t="n">
-        <v>433.5251384721833</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L14" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M14" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N14" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O14" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P14" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q14" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R14" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503682</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L15" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N15" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O15" t="n">
-        <v>412.5678332385575</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P15" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714192</v>
+        <v>69.59572666714183</v>
       </c>
       <c r="K16" t="n">
-        <v>245.5154777892838</v>
+        <v>245.5154777892837</v>
       </c>
       <c r="L16" t="n">
-        <v>370.262591229521</v>
+        <v>370.2625912295208</v>
       </c>
       <c r="M16" t="n">
-        <v>400.884051537296</v>
+        <v>400.8840515372958</v>
       </c>
       <c r="N16" t="n">
-        <v>396.8414363488769</v>
+        <v>396.8414363488768</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386574</v>
+        <v>350.3692208386572</v>
       </c>
       <c r="P16" t="n">
-        <v>276.043131703092</v>
+        <v>276.0431317030919</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119442</v>
+        <v>106.8400972119441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721833</v>
+        <v>433.525138472183</v>
       </c>
       <c r="L17" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169876</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381568</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348808</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276929</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227514</v>
       </c>
       <c r="R17" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440238</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.906163644919</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503682</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356841</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>554.4630955659484</v>
       </c>
       <c r="N18" t="n">
-        <v>484.7399473579034</v>
+        <v>583.6922706327294</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133841</v>
+        <v>460.073927130626</v>
       </c>
       <c r="P18" t="n">
-        <v>391.011672274905</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,22 +36042,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414976</v>
       </c>
       <c r="L19" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M19" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N19" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P19" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q19" t="n">
         <v>138.4502995641581</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
         <v>107.1851555440239</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>484.7399473579036</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>387.552703914801</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,16 +36279,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
@@ -36297,7 +36297,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q22" t="n">
-        <v>138.4502995641589</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
-        <v>554.4630955659486</v>
+        <v>387.5527039148003</v>
       </c>
       <c r="N24" t="n">
-        <v>441.7970083053389</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>210.9575171831112</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375746</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M25" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895099</v>
       </c>
       <c r="N25" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
@@ -36753,19 +36753,19 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414974</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
         <v>428.4516387010908</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
         <v>307.6533340553059</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116844</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721833</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L29" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381572</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151685</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348813</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276933</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227518</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R29" t="n">
-        <v>107.185155544024</v>
+        <v>107.1851555440239</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K30" t="n">
-        <v>306.1020700503682</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L30" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M30" t="n">
-        <v>244.9113575532035</v>
+        <v>112.005193908285</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327299</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O30" t="n">
-        <v>511.5201565133841</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P30" t="n">
-        <v>391.011672274905</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
         <v>277.1256801414978</v>
@@ -37154,13 +37154,13 @@
         <v>458.3824541356843</v>
       </c>
       <c r="M33" t="n">
-        <v>503.0168661831898</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N33" t="n">
         <v>583.6922706327297</v>
       </c>
       <c r="O33" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306251</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817348</v>
@@ -37236,7 +37236,7 @@
         <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908712</v>
@@ -37245,7 +37245,7 @@
         <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.4502995641598</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K35" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L35" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M35" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N35" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O35" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P35" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q35" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R35" t="n">
         <v>107.1851555440239</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K36" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L36" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>412.567833238558</v>
+        <v>69.06225485572071</v>
       </c>
       <c r="P36" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,10 +37470,10 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895106</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K38" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L38" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M38" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N38" t="n">
-        <v>687.4322072151683</v>
+        <v>687.432207215169</v>
       </c>
       <c r="O38" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P38" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q38" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R38" t="n">
         <v>107.1851555440239</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L39" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>484.7399473579036</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.520156513384</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P39" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M40" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O40" t="n">
         <v>381.9794231908712</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169878</v>
       </c>
       <c r="M41" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N41" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O41" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P41" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
         <v>107.1851555440239</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K42" t="n">
-        <v>306.1020700503681</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>441.7970083053389</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P42" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N43" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O43" t="n">
         <v>381.9794231908712</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K44" t="n">
-        <v>433.525138472183</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M44" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N44" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q44" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R44" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440247</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
-        <v>458.3824541356843</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N45" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>139.1916783992199</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.01512932375746</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,13 +38181,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M46" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N46" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O46" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P46" t="n">
         <v>307.6533340553059</v>
